--- a/Team-Data/2014-15/12-22-2014-15.xlsx
+++ b/Team-Data/2014-15/12-22-2014-15.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,22 +733,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F2" t="n">
         <v>7</v>
       </c>
       <c r="G2" t="n">
-        <v>0.741</v>
+        <v>0.731</v>
       </c>
       <c r="H2" t="n">
         <v>48.4</v>
       </c>
       <c r="I2" t="n">
-        <v>38.2</v>
+        <v>38.1</v>
       </c>
       <c r="J2" t="n">
         <v>80.7</v>
@@ -690,79 +757,79 @@
         <v>0.473</v>
       </c>
       <c r="L2" t="n">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="M2" t="n">
-        <v>24.8</v>
+        <v>25</v>
       </c>
       <c r="N2" t="n">
         <v>0.378</v>
       </c>
       <c r="O2" t="n">
-        <v>17.4</v>
+        <v>17.3</v>
       </c>
       <c r="P2" t="n">
-        <v>22.4</v>
+        <v>22.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.775</v>
+        <v>0.78</v>
       </c>
       <c r="R2" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="S2" t="n">
-        <v>32.2</v>
+        <v>32</v>
       </c>
       <c r="T2" t="n">
-        <v>40.3</v>
+        <v>40.2</v>
       </c>
       <c r="U2" t="n">
         <v>25.8</v>
       </c>
       <c r="V2" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="W2" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X2" t="n">
         <v>5</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="AA2" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="AB2" t="n">
-        <v>103.1</v>
+        <v>103</v>
       </c>
       <c r="AC2" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE2" t="n">
         <v>6</v>
       </c>
-      <c r="AD2" t="n">
-        <v>19</v>
-      </c>
-      <c r="AE2" t="n">
+      <c r="AF2" t="n">
         <v>5</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>2</v>
       </c>
       <c r="AG2" t="n">
         <v>5</v>
       </c>
       <c r="AH2" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AI2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AJ2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK2" t="n">
         <v>4</v>
@@ -774,22 +841,22 @@
         <v>8</v>
       </c>
       <c r="AN2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO2" t="n">
         <v>16</v>
       </c>
       <c r="AP2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ2" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AR2" t="n">
         <v>29</v>
       </c>
       <c r="AS2" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AT2" t="n">
         <v>26</v>
@@ -801,7 +868,7 @@
         <v>12</v>
       </c>
       <c r="AW2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AX2" t="n">
         <v>12</v>
@@ -813,13 +880,13 @@
         <v>3</v>
       </c>
       <c r="BA2" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB2" t="n">
         <v>8</v>
       </c>
-      <c r="BB2" t="n">
-        <v>9</v>
-      </c>
       <c r="BC2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>12-22-2014-15</t>
+          <t>2014-12-22</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>-0.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE3" t="n">
         <v>21</v>
@@ -941,13 +1008,13 @@
         <v>7</v>
       </c>
       <c r="AI3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ3" t="n">
         <v>1</v>
       </c>
       <c r="AK3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL3" t="n">
         <v>15</v>
@@ -956,7 +1023,7 @@
         <v>12</v>
       </c>
       <c r="AN3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO3" t="n">
         <v>27</v>
@@ -965,7 +1032,7 @@
         <v>27</v>
       </c>
       <c r="AQ3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR3" t="n">
         <v>16</v>
@@ -977,7 +1044,7 @@
         <v>11</v>
       </c>
       <c r="AU3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV3" t="n">
         <v>23</v>
@@ -989,7 +1056,7 @@
         <v>23</v>
       </c>
       <c r="AY3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ3" t="n">
         <v>19</v>
@@ -1001,7 +1068,7 @@
         <v>6</v>
       </c>
       <c r="BC3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>12-22-2014-15</t>
+          <t>2014-12-22</t>
         </is>
       </c>
     </row>
@@ -1156,10 +1223,10 @@
         <v>11</v>
       </c>
       <c r="AT4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AU4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AV4" t="n">
         <v>17</v>
@@ -1183,7 +1250,7 @@
         <v>23</v>
       </c>
       <c r="BC4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>12-22-2014-15</t>
+          <t>2014-12-22</t>
         </is>
       </c>
     </row>
@@ -1212,28 +1279,28 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5" t="n">
         <v>19</v>
       </c>
       <c r="G5" t="n">
-        <v>0.321</v>
+        <v>0.296</v>
       </c>
       <c r="H5" t="n">
         <v>48.9</v>
       </c>
       <c r="I5" t="n">
-        <v>37.1</v>
+        <v>36.9</v>
       </c>
       <c r="J5" t="n">
-        <v>85.09999999999999</v>
+        <v>85.3</v>
       </c>
       <c r="K5" t="n">
-        <v>0.436</v>
+        <v>0.432</v>
       </c>
       <c r="L5" t="n">
         <v>6</v>
@@ -1242,73 +1309,73 @@
         <v>18.5</v>
       </c>
       <c r="N5" t="n">
-        <v>0.326</v>
+        <v>0.323</v>
       </c>
       <c r="O5" t="n">
         <v>15.8</v>
       </c>
       <c r="P5" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.729</v>
+        <v>0.731</v>
       </c>
       <c r="R5" t="n">
-        <v>9.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="S5" t="n">
-        <v>32.1</v>
+        <v>31.9</v>
       </c>
       <c r="T5" t="n">
         <v>41.6</v>
       </c>
       <c r="U5" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="V5" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="W5" t="n">
         <v>5.5</v>
       </c>
       <c r="X5" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Y5" t="n">
         <v>4.6</v>
       </c>
       <c r="Z5" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="AA5" t="n">
         <v>20.8</v>
       </c>
       <c r="AB5" t="n">
-        <v>96.09999999999999</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="AC5" t="n">
-        <v>-4.1</v>
+        <v>-5.3</v>
       </c>
       <c r="AD5" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AE5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AF5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH5" t="n">
         <v>3</v>
       </c>
       <c r="AI5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK5" t="n">
         <v>25</v>
@@ -1320,7 +1387,7 @@
         <v>26</v>
       </c>
       <c r="AN5" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AO5" t="n">
         <v>25</v>
@@ -1335,7 +1402,7 @@
         <v>26</v>
       </c>
       <c r="AS5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AT5" t="n">
         <v>20</v>
@@ -1347,10 +1414,10 @@
         <v>1</v>
       </c>
       <c r="AW5" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AX5" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AY5" t="n">
         <v>13</v>
@@ -1365,7 +1432,7 @@
         <v>24</v>
       </c>
       <c r="BC5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>12-22-2014-15</t>
+          <t>2014-12-22</t>
         </is>
       </c>
     </row>
@@ -1394,115 +1461,115 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F6" t="n">
         <v>9</v>
       </c>
       <c r="G6" t="n">
-        <v>0.667</v>
+        <v>0.654</v>
       </c>
       <c r="H6" t="n">
         <v>48.6</v>
       </c>
       <c r="I6" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="J6" t="n">
-        <v>80.59999999999999</v>
+        <v>80.8</v>
       </c>
       <c r="K6" t="n">
-        <v>0.457</v>
+        <v>0.454</v>
       </c>
       <c r="L6" t="n">
         <v>7.8</v>
       </c>
       <c r="M6" t="n">
-        <v>21.2</v>
+        <v>21.5</v>
       </c>
       <c r="N6" t="n">
-        <v>0.367</v>
+        <v>0.364</v>
       </c>
       <c r="O6" t="n">
-        <v>21.8</v>
+        <v>21</v>
       </c>
       <c r="P6" t="n">
-        <v>28</v>
+        <v>27.2</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.779</v>
+        <v>0.77</v>
       </c>
       <c r="R6" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="S6" t="n">
-        <v>34</v>
+        <v>34.2</v>
       </c>
       <c r="T6" t="n">
-        <v>44.9</v>
+        <v>45</v>
       </c>
       <c r="U6" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="V6" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="W6" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="X6" t="n">
         <v>5.8</v>
       </c>
-      <c r="X6" t="n">
-        <v>6</v>
-      </c>
       <c r="Y6" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Z6" t="n">
         <v>19.6</v>
       </c>
       <c r="AA6" t="n">
-        <v>23.2</v>
+        <v>23</v>
       </c>
       <c r="AB6" t="n">
-        <v>103.2</v>
+        <v>102.2</v>
       </c>
       <c r="AC6" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="AD6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE6" t="n">
         <v>10</v>
       </c>
       <c r="AF6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG6" t="n">
         <v>10</v>
       </c>
       <c r="AH6" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AI6" t="n">
         <v>19</v>
       </c>
       <c r="AJ6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK6" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AL6" t="n">
         <v>13</v>
       </c>
       <c r="AM6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AN6" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AO6" t="n">
         <v>2</v>
@@ -1511,28 +1578,28 @@
         <v>2</v>
       </c>
       <c r="AQ6" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AR6" t="n">
         <v>17</v>
       </c>
       <c r="AS6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV6" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AW6" t="n">
         <v>28</v>
       </c>
       <c r="AX6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AY6" t="n">
         <v>15</v>
@@ -1544,7 +1611,7 @@
         <v>2</v>
       </c>
       <c r="BB6" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BC6" t="n">
         <v>9</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>12-22-2014-15</t>
+          <t>2014-12-22</t>
         </is>
       </c>
     </row>
@@ -1666,13 +1733,13 @@
         <v>11</v>
       </c>
       <c r="AH7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI7" t="n">
         <v>15</v>
       </c>
       <c r="AJ7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK7" t="n">
         <v>7</v>
@@ -1687,13 +1754,13 @@
         <v>13</v>
       </c>
       <c r="AO7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AQ7" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AR7" t="n">
         <v>19</v>
@@ -1705,7 +1772,7 @@
         <v>24</v>
       </c>
       <c r="AU7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV7" t="n">
         <v>8</v>
@@ -1723,10 +1790,10 @@
         <v>1</v>
       </c>
       <c r="BA7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BC7" t="n">
         <v>11</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>12-22-2014-15</t>
+          <t>2014-12-22</t>
         </is>
       </c>
     </row>
@@ -1773,70 +1840,70 @@
         <v>48.5</v>
       </c>
       <c r="I8" t="n">
-        <v>41.2</v>
+        <v>41.1</v>
       </c>
       <c r="J8" t="n">
-        <v>86.40000000000001</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="K8" t="n">
-        <v>0.477</v>
+        <v>0.479</v>
       </c>
       <c r="L8" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="M8" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="N8" t="n">
-        <v>0.354</v>
+        <v>0.353</v>
       </c>
       <c r="O8" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="P8" t="n">
         <v>23.1</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.765</v>
+        <v>0.771</v>
       </c>
       <c r="R8" t="n">
-        <v>11.5</v>
+        <v>11.3</v>
       </c>
       <c r="S8" t="n">
-        <v>31</v>
+        <v>30.6</v>
       </c>
       <c r="T8" t="n">
-        <v>42.4</v>
+        <v>41.9</v>
       </c>
       <c r="U8" t="n">
-        <v>23.6</v>
+        <v>23.4</v>
       </c>
       <c r="V8" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="W8" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="X8" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Z8" t="n">
-        <v>20.3</v>
+        <v>20.1</v>
       </c>
       <c r="AA8" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>109.8</v>
+        <v>109.7</v>
       </c>
       <c r="AC8" t="n">
         <v>7.3</v>
       </c>
       <c r="AD8" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE8" t="n">
         <v>5</v>
@@ -1848,7 +1915,7 @@
         <v>8</v>
       </c>
       <c r="AH8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI8" t="n">
         <v>1</v>
@@ -1857,7 +1924,7 @@
         <v>5</v>
       </c>
       <c r="AK8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL8" t="n">
         <v>4</v>
@@ -1875,43 +1942,43 @@
         <v>17</v>
       </c>
       <c r="AQ8" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AR8" t="n">
         <v>10</v>
       </c>
       <c r="AS8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT8" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AU8" t="n">
         <v>7</v>
       </c>
       <c r="AV8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX8" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AY8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ8" t="n">
         <v>12</v>
       </c>
       <c r="BA8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BB8" t="n">
         <v>1</v>
       </c>
       <c r="BC8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>12-22-2014-15</t>
+          <t>2014-12-22</t>
         </is>
       </c>
     </row>
@@ -1940,40 +2007,40 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E9" t="n">
         <v>12</v>
       </c>
       <c r="F9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G9" t="n">
-        <v>0.429</v>
+        <v>0.444</v>
       </c>
       <c r="H9" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I9" t="n">
-        <v>37.4</v>
+        <v>37.6</v>
       </c>
       <c r="J9" t="n">
-        <v>86.8</v>
+        <v>87</v>
       </c>
       <c r="K9" t="n">
-        <v>0.43</v>
+        <v>0.432</v>
       </c>
       <c r="L9" t="n">
-        <v>8.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M9" t="n">
-        <v>25</v>
+        <v>25.3</v>
       </c>
       <c r="N9" t="n">
-        <v>0.324</v>
+        <v>0.33</v>
       </c>
       <c r="O9" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="P9" t="n">
         <v>25.2</v>
@@ -1982,22 +2049,22 @@
         <v>0.74</v>
       </c>
       <c r="R9" t="n">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
       <c r="S9" t="n">
-        <v>32.5</v>
+        <v>32.7</v>
       </c>
       <c r="T9" t="n">
-        <v>45.1</v>
+        <v>45.4</v>
       </c>
       <c r="U9" t="n">
-        <v>21.1</v>
+        <v>21.4</v>
       </c>
       <c r="V9" t="n">
         <v>14.9</v>
       </c>
       <c r="W9" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X9" t="n">
         <v>4.6</v>
@@ -2006,52 +2073,52 @@
         <v>5.8</v>
       </c>
       <c r="Z9" t="n">
-        <v>24.4</v>
+        <v>24.6</v>
       </c>
       <c r="AA9" t="n">
         <v>21.4</v>
       </c>
       <c r="AB9" t="n">
-        <v>101.5</v>
+        <v>102.2</v>
       </c>
       <c r="AC9" t="n">
-        <v>-2.6</v>
+        <v>-1.7</v>
       </c>
       <c r="AD9" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AE9" t="n">
         <v>18</v>
       </c>
       <c r="AF9" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AG9" t="n">
         <v>18</v>
       </c>
       <c r="AH9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI9" t="n">
         <v>16</v>
       </c>
       <c r="AJ9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK9" t="n">
         <v>26</v>
       </c>
       <c r="AL9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AM9" t="n">
         <v>7</v>
       </c>
       <c r="AN9" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AO9" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AP9" t="n">
         <v>8</v>
@@ -2060,25 +2127,25 @@
         <v>21</v>
       </c>
       <c r="AR9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS9" t="n">
         <v>9</v>
       </c>
       <c r="AT9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AV9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW9" t="n">
         <v>18</v>
       </c>
       <c r="AX9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY9" t="n">
         <v>28</v>
@@ -2090,10 +2157,10 @@
         <v>10</v>
       </c>
       <c r="BB9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BC9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>12-22-2014-15</t>
+          <t>2014-12-22</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-6.7</v>
       </c>
       <c r="AD10" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE10" t="n">
         <v>27</v>
@@ -2212,13 +2279,13 @@
         <v>28</v>
       </c>
       <c r="AH10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI10" t="n">
         <v>27</v>
       </c>
       <c r="AJ10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK10" t="n">
         <v>29</v>
@@ -2230,7 +2297,7 @@
         <v>11</v>
       </c>
       <c r="AN10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO10" t="n">
         <v>24</v>
@@ -2242,19 +2309,19 @@
         <v>29</v>
       </c>
       <c r="AR10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT10" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AU10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AV10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AW10" t="n">
         <v>21</v>
@@ -2263,10 +2330,10 @@
         <v>15</v>
       </c>
       <c r="AY10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA10" t="n">
         <v>22</v>
@@ -2275,7 +2342,7 @@
         <v>26</v>
       </c>
       <c r="BC10" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>12-22-2014-15</t>
+          <t>2014-12-22</t>
         </is>
       </c>
     </row>
@@ -2304,28 +2371,28 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F11" t="n">
         <v>3</v>
       </c>
       <c r="G11" t="n">
-        <v>0.885</v>
+        <v>0.88</v>
       </c>
       <c r="H11" t="n">
         <v>48.2</v>
       </c>
       <c r="I11" t="n">
-        <v>40.9</v>
+        <v>40.6</v>
       </c>
       <c r="J11" t="n">
-        <v>84.90000000000001</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="K11" t="n">
-        <v>0.482</v>
+        <v>0.48</v>
       </c>
       <c r="L11" t="n">
         <v>9.6</v>
@@ -2337,13 +2404,13 @@
         <v>0.372</v>
       </c>
       <c r="O11" t="n">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="P11" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.785</v>
+        <v>0.781</v>
       </c>
       <c r="R11" t="n">
         <v>10</v>
@@ -2352,13 +2419,13 @@
         <v>35.5</v>
       </c>
       <c r="T11" t="n">
-        <v>45.5</v>
+        <v>45.6</v>
       </c>
       <c r="U11" t="n">
-        <v>25.7</v>
+        <v>25.3</v>
       </c>
       <c r="V11" t="n">
-        <v>15.8</v>
+        <v>16</v>
       </c>
       <c r="W11" t="n">
         <v>8.6</v>
@@ -2367,22 +2434,22 @@
         <v>6.7</v>
       </c>
       <c r="Y11" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Z11" t="n">
         <v>20.1</v>
       </c>
       <c r="AA11" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="AB11" t="n">
-        <v>108.3</v>
+        <v>107.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>10.2</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD11" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AE11" t="n">
         <v>1</v>
@@ -2397,7 +2464,7 @@
         <v>23</v>
       </c>
       <c r="AI11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ11" t="n">
         <v>11</v>
@@ -2415,7 +2482,7 @@
         <v>6</v>
       </c>
       <c r="AO11" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AP11" t="n">
         <v>24</v>
@@ -2433,13 +2500,13 @@
         <v>3</v>
       </c>
       <c r="AU11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV11" t="n">
         <v>26</v>
       </c>
       <c r="AW11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX11" t="n">
         <v>1</v>
@@ -2451,10 +2518,10 @@
         <v>11</v>
       </c>
       <c r="BA11" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BB11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC11" t="n">
         <v>1</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>12-22-2014-15</t>
+          <t>2014-12-22</t>
         </is>
       </c>
     </row>
@@ -2501,49 +2568,49 @@
         <v>48.6</v>
       </c>
       <c r="I12" t="n">
-        <v>35</v>
+        <v>34.7</v>
       </c>
       <c r="J12" t="n">
-        <v>82.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K12" t="n">
-        <v>0.425</v>
+        <v>0.423</v>
       </c>
       <c r="L12" t="n">
         <v>11.7</v>
       </c>
       <c r="M12" t="n">
-        <v>34.4</v>
+        <v>34.1</v>
       </c>
       <c r="N12" t="n">
-        <v>0.34</v>
+        <v>0.342</v>
       </c>
       <c r="O12" t="n">
-        <v>18</v>
+        <v>18.8</v>
       </c>
       <c r="P12" t="n">
-        <v>25.2</v>
+        <v>26.3</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.717</v>
+        <v>0.713</v>
       </c>
       <c r="R12" t="n">
-        <v>12.2</v>
+        <v>12.5</v>
       </c>
       <c r="S12" t="n">
-        <v>32.2</v>
+        <v>32.1</v>
       </c>
       <c r="T12" t="n">
-        <v>44.4</v>
+        <v>44.6</v>
       </c>
       <c r="U12" t="n">
         <v>19.8</v>
       </c>
       <c r="V12" t="n">
-        <v>17.3</v>
+        <v>17.1</v>
       </c>
       <c r="W12" t="n">
-        <v>9.199999999999999</v>
+        <v>8.9</v>
       </c>
       <c r="X12" t="n">
         <v>5</v>
@@ -2552,28 +2619,28 @@
         <v>5.7</v>
       </c>
       <c r="Z12" t="n">
-        <v>23</v>
+        <v>23.3</v>
       </c>
       <c r="AA12" t="n">
-        <v>21.2</v>
+        <v>21.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="AD12" t="n">
         <v>21</v>
       </c>
       <c r="AE12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH12" t="n">
         <v>8</v>
@@ -2585,7 +2652,7 @@
         <v>17</v>
       </c>
       <c r="AK12" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL12" t="n">
         <v>1</v>
@@ -2594,46 +2661,46 @@
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AO12" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AP12" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AQ12" t="n">
         <v>28</v>
       </c>
       <c r="AR12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AT12" t="n">
         <v>10</v>
       </c>
       <c r="AU12" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AV12" t="n">
         <v>29</v>
       </c>
       <c r="AW12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX12" t="n">
         <v>11</v>
       </c>
       <c r="AY12" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AZ12" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="BA12" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="BB12" t="n">
         <v>18</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>12-22-2014-15</t>
+          <t>2014-12-22</t>
         </is>
       </c>
     </row>
@@ -2746,13 +2813,13 @@
         <v>-3</v>
       </c>
       <c r="AD13" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE13" t="n">
         <v>23</v>
       </c>
       <c r="AF13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG13" t="n">
         <v>23</v>
@@ -2761,19 +2828,19 @@
         <v>21</v>
       </c>
       <c r="AI13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AN13" t="n">
         <v>27</v>
@@ -2791,7 +2858,7 @@
         <v>9</v>
       </c>
       <c r="AS13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT13" t="n">
         <v>2</v>
@@ -2806,7 +2873,7 @@
         <v>29</v>
       </c>
       <c r="AX13" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AY13" t="n">
         <v>18</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>12-22-2014-15</t>
+          <t>2014-12-22</t>
         </is>
       </c>
     </row>
@@ -2850,64 +2917,64 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E14" t="n">
         <v>19</v>
       </c>
       <c r="F14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G14" t="n">
-        <v>0.679</v>
+        <v>0.704</v>
       </c>
       <c r="H14" t="n">
         <v>48.2</v>
       </c>
       <c r="I14" t="n">
-        <v>38.9</v>
+        <v>38.7</v>
       </c>
       <c r="J14" t="n">
-        <v>81.2</v>
+        <v>81</v>
       </c>
       <c r="K14" t="n">
-        <v>0.479</v>
+        <v>0.478</v>
       </c>
       <c r="L14" t="n">
         <v>9.9</v>
       </c>
       <c r="M14" t="n">
-        <v>25.8</v>
+        <v>25.9</v>
       </c>
       <c r="N14" t="n">
-        <v>0.385</v>
+        <v>0.383</v>
       </c>
       <c r="O14" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="P14" t="n">
-        <v>25.2</v>
+        <v>25.1</v>
       </c>
       <c r="Q14" t="n">
         <v>0.759</v>
       </c>
       <c r="R14" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="S14" t="n">
-        <v>31.3</v>
+        <v>31.5</v>
       </c>
       <c r="T14" t="n">
-        <v>39.8</v>
+        <v>39.9</v>
       </c>
       <c r="U14" t="n">
         <v>24.5</v>
       </c>
       <c r="V14" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="W14" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="X14" t="n">
         <v>4.6</v>
@@ -2919,37 +2986,37 @@
         <v>21.1</v>
       </c>
       <c r="AA14" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="AB14" t="n">
-        <v>106.9</v>
+        <v>106.4</v>
       </c>
       <c r="AC14" t="n">
-        <v>5.8</v>
+        <v>6.3</v>
       </c>
       <c r="AD14" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AE14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG14" t="n">
         <v>9</v>
       </c>
       <c r="AH14" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI14" t="n">
         <v>9</v>
       </c>
       <c r="AJ14" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL14" t="n">
         <v>2</v>
@@ -2964,10 +3031,10 @@
         <v>7</v>
       </c>
       <c r="AP14" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AQ14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR14" t="n">
         <v>28</v>
@@ -2997,13 +3064,13 @@
         <v>18</v>
       </c>
       <c r="BA14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BB14" t="n">
         <v>4</v>
       </c>
       <c r="BC14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>12-22-2014-15</t>
+          <t>2014-12-22</t>
         </is>
       </c>
     </row>
@@ -3032,58 +3099,58 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
       </c>
       <c r="F15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G15" t="n">
-        <v>0.308</v>
+        <v>0.296</v>
       </c>
       <c r="H15" t="n">
         <v>48.6</v>
       </c>
       <c r="I15" t="n">
-        <v>38.2</v>
+        <v>37.9</v>
       </c>
       <c r="J15" t="n">
-        <v>87.3</v>
+        <v>87</v>
       </c>
       <c r="K15" t="n">
-        <v>0.438</v>
+        <v>0.435</v>
       </c>
       <c r="L15" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="M15" t="n">
-        <v>19.7</v>
+        <v>19.4</v>
       </c>
       <c r="N15" t="n">
-        <v>0.343</v>
+        <v>0.342</v>
       </c>
       <c r="O15" t="n">
-        <v>19.4</v>
+        <v>19.8</v>
       </c>
       <c r="P15" t="n">
-        <v>25.8</v>
+        <v>26.3</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.751</v>
+        <v>0.754</v>
       </c>
       <c r="R15" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="S15" t="n">
-        <v>30.5</v>
+        <v>30.3</v>
       </c>
       <c r="T15" t="n">
-        <v>42.5</v>
+        <v>42.3</v>
       </c>
       <c r="U15" t="n">
-        <v>20.5</v>
+        <v>20.3</v>
       </c>
       <c r="V15" t="n">
         <v>12.1</v>
@@ -3092,100 +3159,100 @@
         <v>7.4</v>
       </c>
       <c r="X15" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Y15" t="n">
         <v>4</v>
       </c>
       <c r="Z15" t="n">
-        <v>21.8</v>
+        <v>22.2</v>
       </c>
       <c r="AA15" t="n">
-        <v>21.4</v>
+        <v>21.7</v>
       </c>
       <c r="AB15" t="n">
-        <v>102.6</v>
+        <v>102.1</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.7</v>
+        <v>-7.1</v>
       </c>
       <c r="AD15" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="AE15" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AF15" t="n">
         <v>22</v>
       </c>
       <c r="AG15" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AH15" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AI15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ15" t="n">
         <v>2</v>
       </c>
       <c r="AK15" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>25</v>
+      </c>
+      <c r="AM15" t="n">
         <v>23</v>
       </c>
-      <c r="AL15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>21</v>
-      </c>
       <c r="AN15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO15" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AP15" t="n">
         <v>5</v>
       </c>
       <c r="AQ15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS15" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AT15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AU15" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AV15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AX15" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AY15" t="n">
         <v>7</v>
       </c>
       <c r="AZ15" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BA15" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BB15" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BC15" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>12-22-2014-15</t>
+          <t>2014-12-22</t>
         </is>
       </c>
     </row>
@@ -3214,16 +3281,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E16" t="n">
         <v>21</v>
       </c>
       <c r="F16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G16" t="n">
-        <v>0.75</v>
+        <v>0.778</v>
       </c>
       <c r="H16" t="n">
         <v>49.1</v>
@@ -3232,46 +3299,46 @@
         <v>39</v>
       </c>
       <c r="J16" t="n">
-        <v>83.7</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="K16" t="n">
-        <v>0.466</v>
+        <v>0.467</v>
       </c>
       <c r="L16" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="M16" t="n">
-        <v>15.7</v>
+        <v>15.4</v>
       </c>
       <c r="N16" t="n">
-        <v>0.355</v>
+        <v>0.358</v>
       </c>
       <c r="O16" t="n">
-        <v>18.5</v>
+        <v>18.9</v>
       </c>
       <c r="P16" t="n">
-        <v>23.6</v>
+        <v>24.1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.782</v>
+        <v>0.781</v>
       </c>
       <c r="R16" t="n">
-        <v>10.3</v>
+        <v>10.5</v>
       </c>
       <c r="S16" t="n">
-        <v>32.1</v>
+        <v>32.3</v>
       </c>
       <c r="T16" t="n">
-        <v>42.5</v>
+        <v>42.8</v>
       </c>
       <c r="U16" t="n">
         <v>22.4</v>
       </c>
       <c r="V16" t="n">
-        <v>12.4</v>
+        <v>12.7</v>
       </c>
       <c r="W16" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="X16" t="n">
         <v>4.1</v>
@@ -3283,16 +3350,16 @@
         <v>19.6</v>
       </c>
       <c r="AA16" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="AB16" t="n">
-        <v>102</v>
+        <v>102.4</v>
       </c>
       <c r="AC16" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="AD16" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AE16" t="n">
         <v>4</v>
@@ -3307,7 +3374,7 @@
         <v>2</v>
       </c>
       <c r="AI16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ16" t="n">
         <v>14</v>
@@ -3325,19 +3392,19 @@
         <v>15</v>
       </c>
       <c r="AO16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AR16" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AS16" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AT16" t="n">
         <v>14</v>
@@ -3349,22 +3416,22 @@
         <v>6</v>
       </c>
       <c r="AW16" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AX16" t="n">
         <v>24</v>
       </c>
       <c r="AY16" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ16" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA16" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="BB16" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BC16" t="n">
         <v>7</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>12-22-2014-15</t>
+          <t>2014-12-22</t>
         </is>
       </c>
     </row>
@@ -3474,10 +3541,10 @@
         <v>-3.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF17" t="n">
         <v>16</v>
@@ -3495,19 +3562,19 @@
         <v>30</v>
       </c>
       <c r="AK17" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AL17" t="n">
         <v>12</v>
       </c>
       <c r="AM17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AN17" t="n">
         <v>12</v>
       </c>
       <c r="AO17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP17" t="n">
         <v>10</v>
@@ -3525,13 +3592,13 @@
         <v>30</v>
       </c>
       <c r="AU17" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AV17" t="n">
         <v>11</v>
       </c>
       <c r="AW17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX17" t="n">
         <v>30</v>
@@ -3540,7 +3607,7 @@
         <v>8</v>
       </c>
       <c r="AZ17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA17" t="n">
         <v>14</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>12-22-2014-15</t>
+          <t>2014-12-22</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-1.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE18" t="n">
         <v>14</v>
@@ -3665,10 +3732,10 @@
         <v>14</v>
       </c>
       <c r="AG18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI18" t="n">
         <v>14</v>
@@ -3680,10 +3747,10 @@
         <v>8</v>
       </c>
       <c r="AL18" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AM18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AN18" t="n">
         <v>14</v>
@@ -3692,16 +3759,16 @@
         <v>17</v>
       </c>
       <c r="AP18" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ18" t="n">
         <v>8</v>
       </c>
       <c r="AR18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AS18" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AT18" t="n">
         <v>27</v>
@@ -3713,16 +3780,16 @@
         <v>28</v>
       </c>
       <c r="AW18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX18" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AY18" t="n">
         <v>16</v>
       </c>
       <c r="AZ18" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BA18" t="n">
         <v>15</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>12-22-2014-15</t>
+          <t>2014-12-22</t>
         </is>
       </c>
     </row>
@@ -3853,13 +3920,13 @@
         <v>18</v>
       </c>
       <c r="AI19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL19" t="n">
         <v>30</v>
@@ -3868,19 +3935,19 @@
         <v>30</v>
       </c>
       <c r="AN19" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AP19" t="n">
         <v>3</v>
       </c>
       <c r="AQ19" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AR19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS19" t="n">
         <v>28</v>
@@ -3892,10 +3959,10 @@
         <v>14</v>
       </c>
       <c r="AV19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX19" t="n">
         <v>25</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>12-22-2014-15</t>
+          <t>2014-12-22</t>
         </is>
       </c>
     </row>
@@ -3942,160 +4009,160 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F20" t="n">
         <v>13</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5</v>
+        <v>0.519</v>
       </c>
       <c r="H20" t="n">
         <v>48.2</v>
       </c>
       <c r="I20" t="n">
-        <v>39.3</v>
+        <v>39.4</v>
       </c>
       <c r="J20" t="n">
-        <v>84.90000000000001</v>
+        <v>85.5</v>
       </c>
       <c r="K20" t="n">
-        <v>0.463</v>
+        <v>0.46</v>
       </c>
       <c r="L20" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="M20" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="N20" t="n">
-        <v>0.344</v>
+        <v>0.34</v>
       </c>
       <c r="O20" t="n">
-        <v>17.2</v>
+        <v>17.1</v>
       </c>
       <c r="P20" t="n">
-        <v>22.5</v>
+        <v>22.8</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.762</v>
+        <v>0.748</v>
       </c>
       <c r="R20" t="n">
-        <v>11.5</v>
+        <v>12.1</v>
       </c>
       <c r="S20" t="n">
-        <v>30.7</v>
+        <v>30.9</v>
       </c>
       <c r="T20" t="n">
-        <v>42.2</v>
+        <v>43</v>
       </c>
       <c r="U20" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="V20" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="W20" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X20" t="n">
-        <v>5.7</v>
+        <v>6.1</v>
       </c>
       <c r="Y20" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Z20" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.8</v>
+        <v>19</v>
       </c>
       <c r="AB20" t="n">
         <v>102.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>-0.6</v>
+        <v>0</v>
       </c>
       <c r="AD20" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="AE20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF20" t="n">
         <v>13</v>
       </c>
       <c r="AG20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH20" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AI20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ20" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AK20" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AL20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AM20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN20" t="n">
+        <v>20</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>18</v>
+      </c>
+      <c r="AQ20" t="n">
         <v>17</v>
       </c>
-      <c r="AO20" t="n">
-        <v>18</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>14</v>
-      </c>
       <c r="AR20" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AS20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT20" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AU20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AV20" t="n">
         <v>4</v>
       </c>
       <c r="AW20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>27</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>28</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC20" t="n">
         <v>15</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>10</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>29</v>
-      </c>
-      <c r="BB20" t="n">
-        <v>13</v>
-      </c>
-      <c r="BC20" t="n">
-        <v>16</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>12-22-2014-15</t>
+          <t>2014-12-22</t>
         </is>
       </c>
     </row>
@@ -4217,7 +4284,7 @@
         <v>22</v>
       </c>
       <c r="AI21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ21" t="n">
         <v>24</v>
@@ -4229,7 +4296,7 @@
         <v>18</v>
       </c>
       <c r="AM21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AN21" t="n">
         <v>8</v>
@@ -4241,7 +4308,7 @@
         <v>30</v>
       </c>
       <c r="AQ21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AR21" t="n">
         <v>18</v>
@@ -4253,7 +4320,7 @@
         <v>29</v>
       </c>
       <c r="AU21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AV21" t="n">
         <v>20</v>
@@ -4265,13 +4332,13 @@
         <v>26</v>
       </c>
       <c r="AY21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AZ21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BA21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BB21" t="n">
         <v>27</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>12-22-2014-15</t>
+          <t>2014-12-22</t>
         </is>
       </c>
     </row>
@@ -4384,10 +4451,10 @@
         <v>1.4</v>
       </c>
       <c r="AD22" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF22" t="n">
         <v>16</v>
@@ -4396,7 +4463,7 @@
         <v>16</v>
       </c>
       <c r="AH22" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI22" t="n">
         <v>23</v>
@@ -4417,22 +4484,22 @@
         <v>29</v>
       </c>
       <c r="AO22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AP22" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ22" t="n">
         <v>20</v>
       </c>
       <c r="AR22" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AS22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU22" t="n">
         <v>30</v>
@@ -4441,7 +4508,7 @@
         <v>25</v>
       </c>
       <c r="AW22" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AX22" t="n">
         <v>3</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>12-22-2014-15</t>
+          <t>2014-12-22</t>
         </is>
       </c>
     </row>
@@ -4488,91 +4555,91 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E23" t="n">
         <v>10</v>
       </c>
       <c r="F23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G23" t="n">
-        <v>0.345</v>
+        <v>0.333</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
       </c>
       <c r="I23" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="J23" t="n">
-        <v>80.2</v>
+        <v>80.3</v>
       </c>
       <c r="K23" t="n">
-        <v>0.457</v>
+        <v>0.454</v>
       </c>
       <c r="L23" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="M23" t="n">
-        <v>18.8</v>
+        <v>18.5</v>
       </c>
       <c r="N23" t="n">
         <v>0.374</v>
       </c>
       <c r="O23" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="P23" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.724</v>
+        <v>0.726</v>
       </c>
       <c r="R23" t="n">
-        <v>8.9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="S23" t="n">
-        <v>31.7</v>
+        <v>31.9</v>
       </c>
       <c r="T23" t="n">
-        <v>40.6</v>
+        <v>41.1</v>
       </c>
       <c r="U23" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="V23" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W23" t="n">
         <v>6.6</v>
       </c>
       <c r="X23" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="Z23" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="AA23" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="AB23" t="n">
-        <v>94</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5.3</v>
+        <v>-5.7</v>
       </c>
       <c r="AD23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE23" t="n">
         <v>21</v>
       </c>
       <c r="AF23" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AG23" t="n">
         <v>22</v>
@@ -4587,13 +4654,13 @@
         <v>27</v>
       </c>
       <c r="AK23" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AM23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AN23" t="n">
         <v>5</v>
@@ -4605,37 +4672,37 @@
         <v>29</v>
       </c>
       <c r="AQ23" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AR23" t="n">
         <v>27</v>
       </c>
       <c r="AS23" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT23" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AU23" t="n">
         <v>29</v>
       </c>
       <c r="AV23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AX23" t="n">
         <v>29</v>
       </c>
       <c r="AY23" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ23" t="n">
         <v>15</v>
       </c>
       <c r="BA23" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BB23" t="n">
         <v>28</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>12-22-2014-15</t>
+          <t>2014-12-22</t>
         </is>
       </c>
     </row>
@@ -4790,7 +4857,7 @@
         <v>30</v>
       </c>
       <c r="AR24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AS24" t="n">
         <v>22</v>
@@ -4811,13 +4878,13 @@
         <v>6</v>
       </c>
       <c r="AY24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ24" t="n">
         <v>23</v>
       </c>
       <c r="BA24" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>12-22-2014-15</t>
+          <t>2014-12-22</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>1.2</v>
       </c>
       <c r="AD25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE25" t="n">
         <v>13</v>
@@ -4939,10 +5006,10 @@
         <v>14</v>
       </c>
       <c r="AG25" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH25" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI25" t="n">
         <v>10</v>
@@ -4951,7 +5018,7 @@
         <v>10</v>
       </c>
       <c r="AK25" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AL25" t="n">
         <v>3</v>
@@ -4960,10 +5027,10 @@
         <v>3</v>
       </c>
       <c r="AN25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP25" t="n">
         <v>25</v>
@@ -4972,25 +5039,25 @@
         <v>1</v>
       </c>
       <c r="AR25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AS25" t="n">
         <v>18</v>
       </c>
       <c r="AT25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU25" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AV25" t="n">
         <v>24</v>
       </c>
       <c r="AW25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY25" t="n">
         <v>6</v>
@@ -4999,7 +5066,7 @@
         <v>25</v>
       </c>
       <c r="BA25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB25" t="n">
         <v>5</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>12-22-2014-15</t>
+          <t>2014-12-22</t>
         </is>
       </c>
     </row>
@@ -5034,25 +5101,25 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E26" t="n">
         <v>22</v>
       </c>
       <c r="F26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G26" t="n">
-        <v>0.759</v>
+        <v>0.786</v>
       </c>
       <c r="H26" t="n">
         <v>48.5</v>
       </c>
       <c r="I26" t="n">
-        <v>39.3</v>
+        <v>39.5</v>
       </c>
       <c r="J26" t="n">
-        <v>86.40000000000001</v>
+        <v>86.8</v>
       </c>
       <c r="K26" t="n">
         <v>0.455</v>
@@ -5061,7 +5128,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="M26" t="n">
-        <v>25.6</v>
+        <v>25.5</v>
       </c>
       <c r="N26" t="n">
         <v>0.365</v>
@@ -5070,52 +5137,52 @@
         <v>15.5</v>
       </c>
       <c r="P26" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.783</v>
+        <v>0.777</v>
       </c>
       <c r="R26" t="n">
-        <v>11.6</v>
+        <v>11.8</v>
       </c>
       <c r="S26" t="n">
-        <v>35</v>
+        <v>35.2</v>
       </c>
       <c r="T26" t="n">
-        <v>46.6</v>
+        <v>47</v>
       </c>
       <c r="U26" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="V26" t="n">
-        <v>14</v>
+        <v>13.7</v>
       </c>
       <c r="W26" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="X26" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y26" t="n">
         <v>3.6</v>
       </c>
       <c r="Z26" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="AA26" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="AB26" t="n">
-        <v>103.4</v>
+        <v>103.7</v>
       </c>
       <c r="AC26" t="n">
-        <v>6.7</v>
+        <v>7.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF26" t="n">
         <v>2</v>
@@ -5124,16 +5191,16 @@
         <v>2</v>
       </c>
       <c r="AH26" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ26" t="n">
         <v>4</v>
       </c>
       <c r="AK26" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL26" t="n">
         <v>7</v>
@@ -5151,7 +5218,7 @@
         <v>28</v>
       </c>
       <c r="AQ26" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AR26" t="n">
         <v>7</v>
@@ -5163,22 +5230,22 @@
         <v>1</v>
       </c>
       <c r="AU26" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV26" t="n">
         <v>9</v>
-      </c>
-      <c r="AV26" t="n">
-        <v>10</v>
       </c>
       <c r="AW26" t="n">
         <v>23</v>
       </c>
       <c r="AX26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY26" t="n">
         <v>5</v>
       </c>
       <c r="AZ26" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BA26" t="n">
         <v>25</v>
@@ -5187,7 +5254,7 @@
         <v>7</v>
       </c>
       <c r="BC26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>12-22-2014-15</t>
+          <t>2014-12-22</t>
         </is>
       </c>
     </row>
@@ -5216,91 +5283,91 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E27" t="n">
         <v>12</v>
       </c>
       <c r="F27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G27" t="n">
-        <v>0.429</v>
+        <v>0.444</v>
       </c>
       <c r="H27" t="n">
         <v>48.7</v>
       </c>
       <c r="I27" t="n">
-        <v>36</v>
+        <v>35.7</v>
       </c>
       <c r="J27" t="n">
-        <v>78.59999999999999</v>
+        <v>78.2</v>
       </c>
       <c r="K27" t="n">
-        <v>0.458</v>
+        <v>0.457</v>
       </c>
       <c r="L27" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="M27" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="N27" t="n">
-        <v>0.336</v>
+        <v>0.331</v>
       </c>
       <c r="O27" t="n">
-        <v>24.3</v>
+        <v>24.7</v>
       </c>
       <c r="P27" t="n">
-        <v>31.4</v>
+        <v>31.8</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.773</v>
+        <v>0.775</v>
       </c>
       <c r="R27" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="S27" t="n">
-        <v>33.6</v>
+        <v>33.8</v>
       </c>
       <c r="T27" t="n">
-        <v>44.8</v>
+        <v>45</v>
       </c>
       <c r="U27" t="n">
-        <v>19.9</v>
+        <v>19.5</v>
       </c>
       <c r="V27" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="W27" t="n">
         <v>6</v>
       </c>
       <c r="X27" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="Y27" t="n">
         <v>5.9</v>
       </c>
       <c r="Z27" t="n">
-        <v>22.8</v>
+        <v>23</v>
       </c>
       <c r="AA27" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="AB27" t="n">
-        <v>101.4</v>
+        <v>101.1</v>
       </c>
       <c r="AC27" t="n">
-        <v>-1.3</v>
+        <v>-0.6</v>
       </c>
       <c r="AD27" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AE27" t="n">
         <v>18</v>
       </c>
       <c r="AF27" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AG27" t="n">
         <v>18</v>
@@ -5309,10 +5376,10 @@
         <v>5</v>
       </c>
       <c r="AI27" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AJ27" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AK27" t="n">
         <v>15</v>
@@ -5324,7 +5391,7 @@
         <v>29</v>
       </c>
       <c r="AN27" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO27" t="n">
         <v>1</v>
@@ -5333,19 +5400,19 @@
         <v>1</v>
       </c>
       <c r="AQ27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AT27" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AU27" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AV27" t="n">
         <v>27</v>
@@ -5354,7 +5421,7 @@
         <v>27</v>
       </c>
       <c r="AX27" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AY27" t="n">
         <v>30</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>12-22-2014-15</t>
+          <t>2014-12-22</t>
         </is>
       </c>
     </row>
@@ -5413,73 +5480,73 @@
         <v>49.4</v>
       </c>
       <c r="I28" t="n">
-        <v>38.4</v>
+        <v>38</v>
       </c>
       <c r="J28" t="n">
-        <v>83.2</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K28" t="n">
-        <v>0.462</v>
+        <v>0.458</v>
       </c>
       <c r="L28" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="M28" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="N28" t="n">
-        <v>0.379</v>
+        <v>0.378</v>
       </c>
       <c r="O28" t="n">
         <v>17.9</v>
       </c>
       <c r="P28" t="n">
-        <v>23.3</v>
+        <v>23.1</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.767</v>
+        <v>0.773</v>
       </c>
       <c r="R28" t="n">
-        <v>10.2</v>
+        <v>10.4</v>
       </c>
       <c r="S28" t="n">
-        <v>34.9</v>
+        <v>34.8</v>
       </c>
       <c r="T28" t="n">
-        <v>45.1</v>
+        <v>45.3</v>
       </c>
       <c r="U28" t="n">
-        <v>24.2</v>
+        <v>23.7</v>
       </c>
       <c r="V28" t="n">
-        <v>14.5</v>
+        <v>14.8</v>
       </c>
       <c r="W28" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="X28" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Z28" t="n">
         <v>19.3</v>
       </c>
       <c r="AA28" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="AB28" t="n">
-        <v>103</v>
+        <v>102.1</v>
       </c>
       <c r="AC28" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="AD28" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF28" t="n">
         <v>12</v>
@@ -5491,22 +5558,22 @@
         <v>1</v>
       </c>
       <c r="AI28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ28" t="n">
         <v>15</v>
       </c>
       <c r="AK28" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AL28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM28" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AN28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO28" t="n">
         <v>12</v>
@@ -5515,10 +5582,10 @@
         <v>16</v>
       </c>
       <c r="AQ28" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AR28" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS28" t="n">
         <v>3</v>
@@ -5530,25 +5597,25 @@
         <v>6</v>
       </c>
       <c r="AV28" t="n">
+        <v>16</v>
+      </c>
+      <c r="AW28" t="n">
         <v>15</v>
       </c>
-      <c r="AW28" t="n">
-        <v>14</v>
-      </c>
       <c r="AX28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ28" t="n">
         <v>5</v>
       </c>
       <c r="BA28" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB28" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BC28" t="n">
         <v>8</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>12-22-2014-15</t>
+          <t>2014-12-22</t>
         </is>
       </c>
     </row>
@@ -5580,25 +5647,25 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E29" t="n">
         <v>22</v>
       </c>
       <c r="F29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G29" t="n">
-        <v>0.759</v>
+        <v>0.786</v>
       </c>
       <c r="H29" t="n">
         <v>48.5</v>
       </c>
       <c r="I29" t="n">
-        <v>39.2</v>
+        <v>39</v>
       </c>
       <c r="J29" t="n">
-        <v>84.7</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="K29" t="n">
         <v>0.463</v>
@@ -5607,61 +5674,61 @@
         <v>9</v>
       </c>
       <c r="M29" t="n">
-        <v>24.8</v>
+        <v>24.6</v>
       </c>
       <c r="N29" t="n">
-        <v>0.365</v>
+        <v>0.368</v>
       </c>
       <c r="O29" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="P29" t="n">
-        <v>26.3</v>
+        <v>26.1</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.79</v>
+        <v>0.793</v>
       </c>
       <c r="R29" t="n">
-        <v>11.3</v>
+        <v>11</v>
       </c>
       <c r="S29" t="n">
-        <v>30</v>
+        <v>30.4</v>
       </c>
       <c r="T29" t="n">
-        <v>41.3</v>
+        <v>41.4</v>
       </c>
       <c r="U29" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="V29" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="W29" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X29" t="n">
         <v>4.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="Z29" t="n">
-        <v>22.1</v>
+        <v>21.8</v>
       </c>
       <c r="AA29" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="AB29" t="n">
-        <v>108.2</v>
+        <v>107.8</v>
       </c>
       <c r="AC29" t="n">
-        <v>8.1</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AD29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF29" t="n">
         <v>2</v>
@@ -5670,16 +5737,16 @@
         <v>2</v>
       </c>
       <c r="AH29" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI29" t="n">
         <v>6</v>
       </c>
       <c r="AJ29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL29" t="n">
         <v>8</v>
@@ -5688,49 +5755,49 @@
         <v>9</v>
       </c>
       <c r="AN29" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AO29" t="n">
         <v>3</v>
       </c>
       <c r="AP29" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AQ29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR29" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AS29" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AT29" t="n">
         <v>21</v>
       </c>
       <c r="AU29" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV29" t="n">
         <v>2</v>
       </c>
       <c r="AW29" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AX29" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AY29" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AZ29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA29" t="n">
         <v>4</v>
       </c>
       <c r="BB29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC29" t="n">
         <v>2</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>12-22-2014-15</t>
+          <t>2014-12-22</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F30" t="n">
         <v>20</v>
       </c>
       <c r="G30" t="n">
-        <v>0.31</v>
+        <v>0.286</v>
       </c>
       <c r="H30" t="n">
         <v>48</v>
@@ -5780,46 +5847,46 @@
         <v>36</v>
       </c>
       <c r="J30" t="n">
-        <v>78.2</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="K30" t="n">
         <v>0.46</v>
       </c>
       <c r="L30" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="M30" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="N30" t="n">
-        <v>0.336</v>
+        <v>0.332</v>
       </c>
       <c r="O30" t="n">
-        <v>17.6</v>
+        <v>17.5</v>
       </c>
       <c r="P30" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="Q30" t="n">
         <v>0.745</v>
       </c>
       <c r="R30" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="S30" t="n">
-        <v>30.1</v>
+        <v>29.8</v>
       </c>
       <c r="T30" t="n">
-        <v>41.1</v>
+        <v>40.8</v>
       </c>
       <c r="U30" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="V30" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W30" t="n">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="X30" t="n">
         <v>5.3</v>
@@ -5828,40 +5895,40 @@
         <v>4.5</v>
       </c>
       <c r="Z30" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="AA30" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AB30" t="n">
         <v>96.40000000000001</v>
       </c>
       <c r="AC30" t="n">
-        <v>-4.8</v>
+        <v>-5.2</v>
       </c>
       <c r="AD30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AF30" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG30" t="n">
         <v>26</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>25</v>
       </c>
       <c r="AH30" t="n">
         <v>29</v>
       </c>
       <c r="AI30" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AJ30" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AK30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL30" t="n">
         <v>22</v>
@@ -5876,25 +5943,25 @@
         <v>14</v>
       </c>
       <c r="AP30" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AQ30" t="n">
         <v>19</v>
       </c>
       <c r="AR30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS30" t="n">
+        <v>27</v>
+      </c>
+      <c r="AT30" t="n">
         <v>25</v>
-      </c>
-      <c r="AT30" t="n">
-        <v>22</v>
       </c>
       <c r="AU30" t="n">
         <v>24</v>
       </c>
       <c r="AV30" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AW30" t="n">
         <v>26</v>
@@ -5903,7 +5970,7 @@
         <v>7</v>
       </c>
       <c r="AY30" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ30" t="n">
         <v>4</v>
@@ -5915,7 +5982,7 @@
         <v>22</v>
       </c>
       <c r="BC30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>12-22-2014-15</t>
+          <t>2014-12-22</t>
         </is>
       </c>
     </row>
@@ -6025,13 +6092,13 @@
         <v>21</v>
       </c>
       <c r="AE31" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AG31" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH31" t="n">
         <v>8</v>
@@ -6055,10 +6122,10 @@
         <v>1</v>
       </c>
       <c r="AO31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP31" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ31" t="n">
         <v>22</v>
@@ -6079,19 +6146,19 @@
         <v>13</v>
       </c>
       <c r="AW31" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX31" t="n">
         <v>9</v>
-      </c>
-      <c r="AX31" t="n">
-        <v>10</v>
       </c>
       <c r="AY31" t="n">
         <v>10</v>
       </c>
       <c r="AZ31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB31" t="n">
         <v>17</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>12-22-2014-15</t>
+          <t>2014-12-22</t>
         </is>
       </c>
     </row>
